--- a/159.xlsx
+++ b/159.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LSM\0 1 label.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squir\Desktop\数据\0 1 label 155-192\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4AD24-D9F1-4E1E-9DFB-A85EA3C42ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57072165-0772-4E97-918D-D0DD911FA0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="132" windowWidth="5844" windowHeight="12804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>203</v>
       </c>
       <c r="B203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
